--- a/docs/assets/disciplinas/LOQ4256.xlsx
+++ b/docs/assets/disciplinas/LOQ4256.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Apresentar um quadro conceitual para facilitar a formulação, planejamento e implantação de estratégias corporativas, de negócios e funcionais, com interface com as estratégias funcionais de Produção</t>
+    <t>5701460 - Antonio Iacono</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>5701460 - Antonio Iacono</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>1. Estratégia e processo de planejamento estratégico. 2. Estratégia de Negócios. 3. Estratégia Corporativa. 4. Estratégias Funcionais. 5. Planejamento Estratégico da Produção. 6. Tópicos Complementares.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>1. Estratégia e processo de planejamento estratégico. Escolas para formulação de Estratégia.2. Estratégia de Negócios: análise do ambiente, definição da missão, posicionamento competitivo, formulação e avaliação de estratégias de negócios.3. Estratégia Corporativa: análise do ambiente, definição da missão, segmentação dos negócios, estratégia horizontal e integração vertical.4. Estratégias Funcionais e critérios competitivos: Finanças, Recursos Humanos, Tecnologia, Marketing e Produção.5. Planejamento Estratégico da Produção: prioridades competitivas, estratégia de suprimentos, estratégia de recursos em instalações, processos e humanos, estratégia de qualidade de conformação e estratégia de transformação.6. Tópicos Complementares: Cadeias, Redes e Alianças na Estratégia. Estratégias nos ambientes turbulentos da Nova Economia.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,25 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas Expositivas; trabalhos em grupo; exercícios individuais; palestras e painel integrado.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>MF = (0,40*P1 + 0,40*P2 + 0,20*TRAB), onde P1 e P2 são provas e TRAB é a nota média de trabalhos e seminários.</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação.</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>1.AQUILANO, D.N., CHASE, R.B. Fundamentos da Administração da Produção, 3.ed, Porto Alegre, Bookman, 2001.2. CARVALHO, M.M.; LAURINDO, F.J.B. "Estratégias para Competitividade" - São Paulo, Editora Futura, 2003.3. CORREA, H. E GIANESI, I: "Estratégia de Operações" cap. 22; idem: "Serviços", cap. 32; Cantizani Filho, A: "Planejamento e Gestão Estratégica", cap. 36. Todos em "Gestão de Operações: A Engenharia de Produção a Serviço da Modernização da Empresa", coordenado por José Celso Contador. Editora Edgard Blücher e Fundação Vanzolini, São Paulo, 1997.4. HAX, A.C., MAJLUF, N.S. The Strategy Concepts and Process: a pragmatic approach, 2.ed, Englewood Cliffs, N.J., Prentice-Hall, 1996.5. KOTLER, P. Administração de Marketing: análise, implementação e controle, 4.ed., São Paulo, Atlas, 1994.6. LAURINDO, F.J.B. "Tecnologia da Informação: eficácia nas organizações" - São Paulo, Editora Futura, 2002, 248 p.7. MINTZBERG, H.; AHLSTRAND, B.; LAMPEL, J.: "Strategy Safary: a guided tour through the wilds of Strategic Management"; The Free Press, N. York, 1996.8. PORTER, M. E.: "A Vantagem Competitiva das Nações"; tradução de Waltensir Dutra, Editora Campus, Rio de Janeiro, 1993.9. PORTER, M.E.; Montgomery, C.A (editores): "Strategy: seeking and securing competitive advantage". Harvard Business School Publishing Division, Boston, 1991.10. PORTER, M. E.: "What is Strategy?" Harvard Business Review, p61-78, n.6, 1996.11. SLACK, N.: "Vantagem Competitiva em Manufatura: atingindo competitividade nas operações industriais", Editora Atlas, São Paulo, 1993.12. SLACK, N.; LEWIS, M. Estratégia de operações. Bookman Editora, 2009.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,106 +603,98 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/docs/assets/disciplinas/LOQ4256.xlsx
+++ b/docs/assets/disciplinas/LOQ4256.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,19 +70,22 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Apresentar um quadro conceitual para facilitar a formulação, planejamento e implantação de estratégias corporativas, de negócios e funcionais, com interface com as estratégias funcionais de Produção</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>5701460 - Antonio Iacono</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>1. Estratégia e processo de planejamento estratégico. 2. Estratégia de Negócios. 3. Estratégia Corporativa. 4. Estratégias Funcionais. 5. Planejamento Estratégico da Produção. 6. Tópicos Complementares.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -91,6 +94,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>1. Estratégia e processo de planejamento estratégico. Escolas para formulação de Estratégia.2. Estratégia de Negócios: análise do ambiente, definição da missão, posicionamento competitivo, formulação e avaliação de estratégias de negócios.3. Estratégia Corporativa: análise do ambiente, definição da missão, segmentação dos negócios, estratégia horizontal e integração vertical.4. Estratégias Funcionais e critérios competitivos: Finanças, Recursos Humanos, Tecnologia, Marketing e Produção.5. Planejamento Estratégico da Produção: prioridades competitivas, estratégia de suprimentos, estratégia de recursos em instalações, processos e humanos, estratégia de qualidade de conformação e estratégia de transformação.6. Tópicos Complementares: Cadeias, Redes e Alianças na Estratégia. Estratégias nos ambientes turbulentos da Nova Economia.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -100,22 +106,25 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas Expositivas; trabalhos em grupo; exercícios individuais; palestras e painel integrado.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas Expositivas; trabalhos em grupo; exercícios individuais; palestras e painel integrado.</t>
+    <t>MF = (0,40*P1 + 0,40*P2 + 0,20*TRAB), onde P1 e P2 são provas e TRAB é a nota média de trabalhos e seminários.</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>MF = (0,40*P1 + 0,40*P2 + 0,20*TRAB), onde P1 e P2 são provas e TRAB é a nota média de trabalhos e seminários.</t>
+    <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação.</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>NF = (MF + PR)/2, onde PR é uma prova de recuperação.</t>
+    <t>1.AQUILANO, D.N., CHASE, R.B. Fundamentos da Administração da Produção, 3.ed, Porto Alegre, Bookman, 2001.2. CARVALHO, M.M.; LAURINDO, F.J.B. "Estratégias para Competitividade" - São Paulo, Editora Futura, 2003.3. CORREA, H. E GIANESI, I: "Estratégia de Operações" cap. 22; idem: "Serviços", cap. 32; Cantizani Filho, A: "Planejamento e Gestão Estratégica", cap. 36. Todos em "Gestão de Operações: A Engenharia de Produção a Serviço da Modernização da Empresa", coordenado por José Celso Contador. Editora Edgard Blücher e Fundação Vanzolini, São Paulo, 1997.4. HAX, A.C., MAJLUF, N.S. The Strategy Concepts and Process: a pragmatic approach, 2.ed, Englewood Cliffs, N.J., Prentice-Hall, 1996.5. KOTLER, P. Administração de Marketing: análise, implementação e controle, 4.ed., São Paulo, Atlas, 1994.6. LAURINDO, F.J.B. "Tecnologia da Informação: eficácia nas organizações" - São Paulo, Editora Futura, 2002, 248 p.7. MINTZBERG, H.; AHLSTRAND, B.; LAMPEL, J.: "Strategy Safary: a guided tour through the wilds of Strategic Management"; The Free Press, N. York, 1996.8. PORTER, M. E.: "A Vantagem Competitiva das Nações"; tradução de Waltensir Dutra, Editora Campus, Rio de Janeiro, 1993.9. PORTER, M.E.; Montgomery, C.A (editores): "Strategy: seeking and securing competitive advantage". Harvard Business School Publishing Division, Boston, 1991.10. PORTER, M. E.: "What is Strategy?" Harvard Business Review, p61-78, n.6, 1996.11. SLACK, N.: "Vantagem Competitiva em Manufatura: atingindo competitividade nas operações industriais", Editora Atlas, São Paulo, 1993.12. SLACK, N.; LEWIS, M. Estratégia de operações. Bookman Editora, 2009.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -478,13 +487,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -603,98 +612,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="B16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
+      <c r="B22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
